--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_34_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_34_9.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_0</t>
+          <t>model_34_9_13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9826448735464418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7750462720166114</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9679961898427799</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999999999992132</v>
+        <v>0.6453263247517373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.938623665656321</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1160538105079529</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0466360404054</v>
+        <v>1.504266614841594</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.2810141082166586</v>
       </c>
       <c r="J2" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.3375106968136754</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.309262402515167</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2666785106711111</v>
+        <v>1.027526454883393</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3406667147050808</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00415061463017</v>
+        <v>1.006036565722977</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3551696020273928</v>
       </c>
       <c r="P2" t="n">
-        <v>191.0565602922864</v>
+        <v>190.3074026234946</v>
       </c>
       <c r="Q2" t="n">
-        <v>304.4120120050291</v>
+        <v>303.6628543362373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_22</t>
+          <t>model_34_9_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9829652409202075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7750300273141988</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9697142650095532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999999999992132</v>
+        <v>0.669914710378251</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9424424740833668</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1139115124044257</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0466360404054</v>
+        <v>1.504375243241426</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.2659282994186381</v>
       </c>
       <c r="J3" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.3141121653029311</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.2900202323607846</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2666785106711111</v>
+        <v>1.113092681497716</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3375077960646623</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00415061463017</v>
+        <v>1.005925133592971</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3518762016805888</v>
       </c>
       <c r="P3" t="n">
-        <v>191.0565602922864</v>
+        <v>190.3446666779419</v>
       </c>
       <c r="Q3" t="n">
-        <v>304.4120120050291</v>
+        <v>303.7001183906846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_21</t>
+          <t>model_34_9_14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9822690605362987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7749838112648342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9664005357722412</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999999999992132</v>
+        <v>0.6221925184819274</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9350488768889319</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1185668738372397</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0466360404054</v>
+        <v>1.504684290176333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.2950249807800172</v>
       </c>
       <c r="J4" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.3595250373722489</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.327275009076133</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.950589024140819</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3443354089216496</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00415061463017</v>
+        <v>1.006167283291722</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.358994480152005</v>
       </c>
       <c r="P4" t="n">
-        <v>191.0565602922864</v>
+        <v>190.264556282811</v>
       </c>
       <c r="Q4" t="n">
-        <v>304.4120120050291</v>
+        <v>303.6200079955536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_20</t>
+          <t>model_34_9_11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9832009279072894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7749071410646546</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9715536904960941</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999999999992132</v>
+        <v>0.695867176890388</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.946495823575534</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1123354724365699</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0466360404054</v>
+        <v>1.505196984157968</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.2497769564944058</v>
       </c>
       <c r="J5" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.2894155620086107</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.2695962592515083</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2666785106711111</v>
+        <v>1.208538491279482</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3351648436763169</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00415061463017</v>
+        <v>1.005843155510508</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3494335049584913</v>
       </c>
       <c r="P5" t="n">
-        <v>191.0565602922864</v>
+        <v>190.3725311900343</v>
       </c>
       <c r="Q5" t="n">
-        <v>304.4120120050291</v>
+        <v>303.7279829027769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_19</t>
+          <t>model_34_9_15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9818600982897195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7748647630225909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9649254107910421</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999999999992132</v>
+        <v>0.6005548315167307</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9317203818147521</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1213016062632127</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0466360404054</v>
+        <v>1.505480366320381</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.3079775301503372</v>
       </c>
       <c r="J6" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.3801156571862168</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.3440465936682769</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.8812504008090442</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3482838013218713</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00415061463017</v>
+        <v>1.006309531029663</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3631109637910032</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0565602922864</v>
+        <v>190.2189504420976</v>
       </c>
       <c r="Q6" t="n">
-        <v>304.4120120050291</v>
+        <v>303.5744021548402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_18</t>
+          <t>model_34_9_16</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9814348268548522</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.774706432820264</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9635668867419074</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999999999992132</v>
+        <v>0.5804150143432611</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9286349231058627</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1241453983063654</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0466360404054</v>
+        <v>1.506539121112384</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.3199062480837035</v>
       </c>
       <c r="J7" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.3992808904761128</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.3595935692799082</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.8187661629548024</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3523427284709667</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00415061463017</v>
+        <v>1.006457451528747</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3673426878719731</v>
       </c>
       <c r="P7" t="n">
-        <v>191.0565602922864</v>
+        <v>190.1726036666201</v>
       </c>
       <c r="Q7" t="n">
-        <v>304.4120120050291</v>
+        <v>303.5280553793627</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_17</t>
+          <t>model_34_9_10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9833140003564763</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.774642099345651</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9735098338431117</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999999999992132</v>
+        <v>0.7230206008194251</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9507642743669467</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1115793564482066</v>
       </c>
       <c r="H8" t="n">
-        <v>1.0466360404054</v>
+        <v>1.50696931935335</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.2326007554262929</v>
       </c>
       <c r="J8" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.263576116707937</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.2480884360671149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2666785106711111</v>
+        <v>1.314387234206776</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3340349629128762</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00415061463017</v>
+        <v>1.005803825962965</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3482555228317754</v>
       </c>
       <c r="P8" t="n">
-        <v>191.0565602922864</v>
+        <v>190.3860384484163</v>
       </c>
       <c r="Q8" t="n">
-        <v>304.4120120050291</v>
+        <v>303.7414901611589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_16</t>
+          <t>model_34_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9810058723255909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7745221652087894</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9623196828860492</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999999999992132</v>
+        <v>0.5617488524814058</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9257856130940763</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.12701381921869</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0466360404054</v>
+        <v>1.507771319478789</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.3308575028748245</v>
       </c>
       <c r="J9" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.4170437799615582</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.3739506414181913</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.7624617977456006</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3563899819280699</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00415061463017</v>
+        <v>1.006606653104142</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3715622412877148</v>
       </c>
       <c r="P9" t="n">
-        <v>191.0565602922864</v>
+        <v>190.1269187713953</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4120120050291</v>
+        <v>303.4823704841379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_15</t>
+          <t>model_34_9_18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9805823212169558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7743223370057147</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9611778212318879</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999999999992132</v>
+        <v>0.5445046285354546</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9231623595362739</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1298461074324065</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0466360404054</v>
+        <v>1.509107571592874</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.3408837851479223</v>
       </c>
       <c r="J10" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.4334535403869271</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.3871686627674247</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.7117401167875818</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3603416537571066</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00415061463017</v>
+        <v>1.006753975228885</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.375682143967602</v>
       </c>
       <c r="P10" t="n">
-        <v>191.0565602922864</v>
+        <v>190.0828106374794</v>
       </c>
       <c r="Q10" t="n">
-        <v>304.4120120050291</v>
+        <v>303.438262350222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_14</t>
+          <t>model_34_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9832554547518056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7741903660749239</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9755725382831394</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999999999992132</v>
+        <v>0.7511244126080701</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.95521531594368</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1119708511762168</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0466360404054</v>
+        <v>1.509990061814743</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.2144888791877654</v>
       </c>
       <c r="J11" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.2368322736717532</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.2256605764297593</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2666785106711111</v>
+        <v>1.431746753017319</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3346204583946068</v>
       </c>
       <c r="N11" t="n">
-        <v>1.00415061463017</v>
+        <v>1.005824189651546</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.348865944068306</v>
       </c>
       <c r="P11" t="n">
-        <v>191.0565602922864</v>
+        <v>190.3790333978301</v>
       </c>
       <c r="Q11" t="n">
-        <v>304.4120120050291</v>
+        <v>303.7344851105728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_13</t>
+          <t>model_34_9_19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9801709512276408</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7741147985680246</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9601348476202953</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999999999992132</v>
+        <v>0.5286285774695734</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9207544619468316</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1325969404451401</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0466360404054</v>
+        <v>1.510495382081335</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.3500417665856126</v>
       </c>
       <c r="J12" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.4485613350495683</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.3993015508175904</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.6660457950498956</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3641386280596171</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00415061463017</v>
+        <v>1.00689706044256</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3796407633269907</v>
       </c>
       <c r="P12" t="n">
-        <v>191.0565602922864</v>
+        <v>190.0408825501253</v>
       </c>
       <c r="Q12" t="n">
-        <v>304.4120120050291</v>
+        <v>303.3963342628679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_23</t>
+          <t>model_34_9_20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9797761789021319</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7739054835321844</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9591840106137202</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999999999992132</v>
+        <v>0.5140447849374956</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.918548869297023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1352367848035775</v>
       </c>
       <c r="H13" t="n">
-        <v>1.0466360404054</v>
+        <v>1.511895072689805</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.3583907291669272</v>
       </c>
       <c r="J13" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.462439404732192</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.4104150669495596</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.6248875338627653</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3677455435536608</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00415061463017</v>
+        <v>1.00703437255578</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3834012326809603</v>
       </c>
       <c r="P13" t="n">
-        <v>191.0565602922864</v>
+        <v>190.0014561508599</v>
       </c>
       <c r="Q13" t="n">
-        <v>304.4120120050291</v>
+        <v>303.3569078636025</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_12</t>
+          <t>model_34_9_21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9794011753957066</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7736987957644189</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9583187881760433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999999999992132</v>
+        <v>0.5006840992063756</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9165333690192068</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1377444349777758</v>
       </c>
       <c r="H14" t="n">
-        <v>1.0466360404054</v>
+        <v>1.513277194744562</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.3659879405782675</v>
       </c>
       <c r="J14" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.4751535548530387</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.4205707477156531</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.5878195038731061</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3711393740601714</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00415061463017</v>
+        <v>1.007164808558015</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3869395455783307</v>
       </c>
       <c r="P14" t="n">
-        <v>191.0565602922864</v>
+        <v>189.9647104624011</v>
       </c>
       <c r="Q14" t="n">
-        <v>304.4120120050291</v>
+        <v>303.3201621751438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_10</t>
+          <t>model_34_9_22</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.979047579126024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7734978375903421</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9575322625719705</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999999999992132</v>
+        <v>0.4884643764490931</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9146941769489687</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.140108934861304</v>
       </c>
       <c r="H15" t="n">
-        <v>1.0466360404054</v>
+        <v>1.514621002979941</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.372894143000176</v>
       </c>
       <c r="J15" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.4867819542254856</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.4298380486128308</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.554436721757436</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3743112807027115</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00415061463017</v>
+        <v>1.007287798564861</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3902464868533956</v>
       </c>
       <c r="P15" t="n">
-        <v>191.0565602922864</v>
+        <v>189.9306701055766</v>
       </c>
       <c r="Q15" t="n">
-        <v>304.4120120050291</v>
+        <v>303.2861218183193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_9</t>
+          <t>model_34_9_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9829626128233064</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7734959993407604</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9777252779079102</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999999999992132</v>
+        <v>0.7798112967913047</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9597998642031228</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1139290865005045</v>
       </c>
       <c r="H16" t="n">
-        <v>1.0466360404054</v>
+        <v>1.514633295363359</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.1955864359191105</v>
       </c>
       <c r="J16" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.2095335736390556</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.202560004779083</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2666785106711111</v>
+        <v>1.56182291712771</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3375338301570741</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00415061463017</v>
+        <v>1.005926047713632</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3519033440982124</v>
       </c>
       <c r="P16" t="n">
-        <v>191.0565602922864</v>
+        <v>190.3443581447622</v>
       </c>
       <c r="Q16" t="n">
-        <v>304.4120120050291</v>
+        <v>303.6998098575049</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_8</t>
+          <t>model_34_9_23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9787163668064475</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7733048963525249</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9568181844598231</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999999999992132</v>
+        <v>0.4773096090469413</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9130186707287227</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1423237531674051</v>
       </c>
       <c r="H17" t="n">
-        <v>1.0466360404054</v>
+        <v>1.515911201925638</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.3791642096858716</v>
       </c>
       <c r="J17" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.4973969323911457</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.4382805710385086</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.5243722409113948</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3772582049040221</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00415061463017</v>
+        <v>1.007403002849931</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3933188677189301</v>
       </c>
       <c r="P17" t="n">
-        <v>191.0565602922864</v>
+        <v>189.8993017292885</v>
       </c>
       <c r="Q17" t="n">
-        <v>304.4120120050291</v>
+        <v>303.2547534420311</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_7</t>
+          <t>model_34_9_24</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9784078265370698</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7731214074729486</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9561707911800666</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999999999992132</v>
+        <v>0.4671433270524566</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9114946083925816</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1443869633694313</v>
       </c>
       <c r="H18" t="n">
-        <v>1.0466360404054</v>
+        <v>1.517138192908253</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.3848487405052494</v>
       </c>
       <c r="J18" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.507071258847884</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.4459599996765666</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2666785106711111</v>
+        <v>0.4973031349442387</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3799828461515484</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00415061463017</v>
+        <v>1.007510321204497</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3961595025851485</v>
       </c>
       <c r="P18" t="n">
-        <v>191.0565602922864</v>
+        <v>189.8705166759483</v>
       </c>
       <c r="Q18" t="n">
-        <v>304.4120120050291</v>
+        <v>303.2259683886909</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_6</t>
+          <t>model_34_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9823552896566011</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7724891770196506</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9799429924371071</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999999999992132</v>
+        <v>0.8085566506474706</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9644465466241273</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1179902593127286</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0466360404054</v>
+        <v>1.52136592086061</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.1761134710552442</v>
       </c>
       <c r="J19" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.1821792333335362</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.1791463521943902</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2666785106711111</v>
+        <v>1.705957308678898</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3434971023352725</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00415061463017</v>
+        <v>1.006137290554226</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3581204851187119</v>
       </c>
       <c r="P19" t="n">
-        <v>191.0565602922864</v>
+        <v>190.2743064122419</v>
       </c>
       <c r="Q19" t="n">
-        <v>304.4120120050291</v>
+        <v>303.6297581249846</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_5</t>
+          <t>model_34_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.981331799874939</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7710828608065983</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9821904388157709</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999999999992132</v>
+        <v>0.8366394666542118</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9690565722001607</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1248343401954403</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0466360404054</v>
+        <v>1.530769963852782</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.15637944136433</v>
       </c>
       <c r="J20" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.1554553700744688</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.1559174057193994</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2666785106711111</v>
+        <v>1.865601392520883</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3533190345784392</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00415061463017</v>
+        <v>1.006493287000021</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3683605573516729</v>
       </c>
       <c r="P20" t="n">
-        <v>191.0565602922864</v>
+        <v>190.1615353981489</v>
       </c>
       <c r="Q20" t="n">
-        <v>304.4120120050291</v>
+        <v>303.5169871108915</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_4</t>
+          <t>model_34_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9797635354760518</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7691688521283828</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9844206496244632</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999999999992132</v>
+        <v>0.8630848631127853</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9734969615057311</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1353213314519929</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0466360404054</v>
+        <v>1.543568948697208</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.1367967511014827</v>
       </c>
       <c r="J21" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.1302896901575724</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.1335432206295276</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2666785106711111</v>
+        <v>2.043325339746068</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3678604782414019</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00415061463017</v>
+        <v>1.007038770269199</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.3835210603763061</v>
       </c>
       <c r="P21" t="n">
-        <v>191.0565602922864</v>
+        <v>190.0002061916668</v>
       </c>
       <c r="Q21" t="n">
-        <v>304.4120120050291</v>
+        <v>303.3556579044095</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_3</t>
+          <t>model_34_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9774888309082491</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7666132823897425</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9865743541773396</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999999999992132</v>
+        <v>0.8865846080393573</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9775925374981745</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.150532291370941</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0466360404054</v>
+        <v>1.560658055306813</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.1178858351413034</v>
       </c>
       <c r="J22" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.107927119043268</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.1129064770922857</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2666785106711111</v>
+        <v>2.246552790211798</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.3879849112671019</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00415061463017</v>
+        <v>1.007829971858</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.4045022321792295</v>
       </c>
       <c r="P22" t="n">
-        <v>191.0565602922864</v>
+        <v>189.7871553144076</v>
       </c>
       <c r="Q22" t="n">
-        <v>304.4120120050291</v>
+        <v>303.1426070271502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_2</t>
+          <t>model_34_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9743051768304043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7632507397522841</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.988580467023239</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999999999992132</v>
+        <v>0.9054100595794423</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9811181302579268</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.1718214008488682</v>
       </c>
       <c r="H23" t="n">
-        <v>1.0466360404054</v>
+        <v>1.583143393406582</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.1002708696230425</v>
       </c>
       <c r="J23" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.09001264805052045</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.09514175883678144</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2666785106711111</v>
+        <v>2.47126954689364</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.4145134507454108</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00415061463017</v>
+        <v>1.00893732979812</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.4321601465047773</v>
       </c>
       <c r="P23" t="n">
-        <v>191.0565602922864</v>
+        <v>189.5225994176062</v>
       </c>
       <c r="Q23" t="n">
-        <v>304.4120120050291</v>
+        <v>302.8780511303488</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_1</t>
+          <t>model_34_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9699604234667286</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7588778159557087</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.990360556692213</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999999999992132</v>
+        <v>0.9172908726737778</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9837910171005382</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.200874786597517</v>
       </c>
       <c r="H24" t="n">
-        <v>1.0466360404054</v>
+        <v>1.612385154969744</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.08464053347197123</v>
       </c>
       <c r="J24" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.07870675819733251</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.08167364583465188</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2666785106711111</v>
+        <v>2.719533585174382</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.4481905695097979</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00415061463017</v>
+        <v>1.010448548359399</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.4672709699362107</v>
       </c>
       <c r="P24" t="n">
-        <v>191.0565602922864</v>
+        <v>189.2101470345792</v>
       </c>
       <c r="Q24" t="n">
-        <v>304.4120120050291</v>
+        <v>302.5655987473218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_11</t>
+          <t>model_34_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.9641424913292763</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7532452021913433</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.9918382874349583</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999999999992132</v>
+        <v>0.9192726474369953</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9852657071834836</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.2397793255897749</v>
       </c>
       <c r="H25" t="n">
-        <v>1.0466360404054</v>
+        <v>1.650050469147857</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.07166510383353381</v>
       </c>
       <c r="J25" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.0768208832989683</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.07424299356625107</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2666785106711111</v>
+        <v>2.993527024247468</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.4896726718837544</v>
       </c>
       <c r="N25" t="n">
-        <v>1.00415061463017</v>
+        <v>1.012472176928947</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.5105190512880163</v>
       </c>
       <c r="P25" t="n">
-        <v>191.0565602922864</v>
+        <v>188.8560725106549</v>
       </c>
       <c r="Q25" t="n">
-        <v>304.4120120050291</v>
+        <v>302.2115242233975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_34_9_24</t>
+          <t>model_34_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9880669829382619</v>
+        <v>0.956467755137268</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8434820816948325</v>
+        <v>0.7460485575075209</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9845194066672996</v>
+        <v>0.992956238059067</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999999999992132</v>
+        <v>0.9075387061244202</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9964937830691434</v>
+        <v>0.9851317665368551</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07979614003833417</v>
+        <v>0.2911003218446453</v>
       </c>
       <c r="H26" t="n">
-        <v>1.0466360404054</v>
+        <v>1.69817446528608</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02092302234902314</v>
+        <v>0.06184877583631057</v>
       </c>
       <c r="J26" t="n">
-        <v>2.758987051434777e-11</v>
+        <v>0.08798700862813422</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01046151118830651</v>
+        <v>0.07491789223222241</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2666785106711111</v>
+        <v>3.29561651523354</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2824821056958018</v>
+        <v>0.539537136668687</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00415061463017</v>
+        <v>1.015141650387037</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2945079537538439</v>
+        <v>0.5625063495725156</v>
       </c>
       <c r="P26" t="n">
-        <v>191.0565602922864</v>
+        <v>188.4681746452315</v>
       </c>
       <c r="Q26" t="n">
-        <v>304.4120120050291</v>
+        <v>301.8236263579741</v>
       </c>
     </row>
   </sheetData>
